--- a/Hitachi Jenkins Cloud system Login Credentials(1).xlsx
+++ b/Hitachi Jenkins Cloud system Login Credentials(1).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>URL Link</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>Jayanthi Ravi kumar</t>
+  </si>
+  <si>
+    <t>pavan kumar</t>
+  </si>
+  <si>
+    <t>sriharsha bollu</t>
+  </si>
+  <si>
+    <t>Gajjala Hemanth Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Prapul Reddy Patlolla</t>
+  </si>
+  <si>
+    <t>Divya M</t>
+  </si>
+  <si>
+    <t>Thonduru Arun Kumar</t>
   </si>
 </sst>
 </file>
@@ -826,7 +844,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B30"/>
+      <selection activeCell="B5" sqref="B5:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1227,9 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1244,9 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1262,9 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1279,9 @@
       <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1296,9 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1313,9 @@
       <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1330,9 @@
       <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
